--- a/EZTicket/Datasheets/Flights_Unprocessed.xlsx
+++ b/EZTicket/Datasheets/Flights_Unprocessed.xlsx
@@ -15,6 +15,7 @@
   <x:sheets>
     <x:sheet name="MMT" sheetId="2" r:id="rId1"/>
     <x:sheet name="EaseMyTrip" sheetId="5" r:id="rId5"/>
+    <x:sheet name="GoIbibo" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
   <x:si>
     <x:t>AirlineName</x:t>
   </x:si>
@@ -1450,6 +1451,42 @@
   </x:si>
   <x:si>
     <x:t>1-stop Via Mumbai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alliance Air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1h 45m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IndiGo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1h 20m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1h 25m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,485</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -7146,4 +7183,126 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E6"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>487</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/EZTicket/Datasheets/Flights_Unprocessed.xlsx
+++ b/EZTicket/Datasheets/Flights_Unprocessed.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>AirlineName</x:t>
   </x:si>
@@ -64,7 +64,7 @@
     <x:t>1 stop via Hyderabad</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 5,076</x:t>
+    <x:t>₹ 5,074</x:t>
   </x:si>
   <x:si>
     <x:t>QP 1359</x:t>
@@ -82,7 +82,7 @@
     <x:t>Non stop</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 5,230</x:t>
+    <x:t>₹ 5,228</x:t>
   </x:si>
   <x:si>
     <x:t>QP 1336</x:t>
@@ -112,7 +112,7 @@
     <x:t>02 h 50 m</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 5,236</x:t>
+    <x:t>₹ 5,354</x:t>
   </x:si>
   <x:si>
     <x:t>6E 5021</x:t>
@@ -181,21 +181,21 @@
     <x:t>13:45</x:t>
   </x:si>
   <x:si>
-    <x:t>16:40</x:t>
+    <x:t>16:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E 6621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:15</x:t>
   </x:si>
   <x:si>
     <x:t>02 h 55 m</x:t>
   </x:si>
   <x:si>
-    <x:t>6E 6621</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:15</x:t>
-  </x:si>
-  <x:si>
     <x:t>6E 5039</x:t>
   </x:si>
   <x:si>
@@ -247,15 +247,6 @@
     <x:t>00:45</x:t>
   </x:si>
   <x:si>
-    <x:t>I5 749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22:25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01:15</x:t>
-  </x:si>
-  <x:si>
     <x:t>Go First</x:t>
   </x:si>
   <x:si>
@@ -268,7 +259,7 @@
     <x:t>00:20</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 5,243</x:t>
+    <x:t>₹ 5,675</x:t>
   </x:si>
   <x:si>
     <x:t>Vistara</x:t>
@@ -280,151 +271,238 @@
     <x:t>17:50</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 5,604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G8 116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04:55</x:t>
+    <x:t>₹ 5,722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Air India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 804</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹ 5,881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 h 25 m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:20</x:t>
   </x:si>
   <x:si>
     <x:t>03 h 05 m</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 16,346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpiceJet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SG 4005, SG 8947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 h 55 m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 stop via Shirdi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 18,289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AkasaAir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QP-1405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04h 15m</x:t>
+    <x:t>AI 808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 h 10 m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GO FIRST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G8- 118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02h 45m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>non-stop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I5-1731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05h 10m</x:t>
   </x:si>
   <x:si>
     <x:t>1-stop</x:t>
   </x:si>
   <x:si>
+    <x:t>5,272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I5-1562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08h 45m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09h 25m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indigo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-5021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02h 40m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-2174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-2406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-6813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-6247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02h 50m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-2401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-5039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E-6621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02h 55m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03h 00m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I5-741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I5-1532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E- 699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04h 45m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4h 15m</x:t>
+  </x:si>
+  <x:si>
     <x:t>5,076</x:t>
   </x:si>
   <x:si>
-    <x:t>GO FIRST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G8- 118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02h 45m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>non-stop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QP-1359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02h 40m</x:t>
+    <x:t>2h 40m</x:t>
   </x:si>
   <x:si>
     <x:t>5,230</x:t>
   </x:si>
   <x:si>
-    <x:t>QP-1336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indigo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-5021</x:t>
+    <x:t>2h 45m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2h 50m</x:t>
   </x:si>
   <x:si>
     <x:t>5,236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E- 122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E- 861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E- 869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-2174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E- 735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-2406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-6813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-6247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02h 50m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I5-741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-5039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I5-749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-2401</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02h 55m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E-6621</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I5-1532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6E- 871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03h 00m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4h 15m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2h 40m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2h 45m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2h 50m</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1048,7 +1126,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>18</x:v>
@@ -1062,16 +1140,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="s">
+      <x:c r="D13" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
         <x:v>18</x:v>
@@ -1140,7 +1218,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
         <x:v>18</x:v>
@@ -1220,39 +1298,39 @@
     </x:row>
     <x:row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A20" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A21" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>23</x:v>
@@ -1261,76 +1339,214 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A22" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A23" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A24" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B24" s="1" t="s">
+      <x:c r="C24" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C24" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="C25" s="1" t="s">
         <x:v>94</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F26" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E28" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F28" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G28" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1380,102 +1596,99 @@
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="A2" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>31</x:v>
@@ -1484,21 +1697,21 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>34</x:v>
@@ -1507,21 +1720,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12">
       <x:c r="A8" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>37</x:v>
@@ -1530,21 +1743,21 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12">
       <x:c r="A9" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>48</x:v>
@@ -1553,21 +1766,21 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12">
       <x:c r="A10" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>61</x:v>
@@ -1576,21 +1789,21 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
       <x:c r="A11" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>67</x:v>
@@ -1599,21 +1812,21 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:12">
       <x:c r="A12" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
         <x:v>69</x:v>
@@ -1622,21 +1835,21 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:12">
       <x:c r="A13" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
         <x:v>72</x:v>
@@ -1645,21 +1858,21 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
       <x:c r="A14" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
         <x:v>26</x:v>
@@ -1668,44 +1881,44 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:12">
       <x:c r="A15" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>58</x:v>
@@ -1714,82 +1927,82 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:12">
       <x:c r="A17" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:12">
       <x:c r="A18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:12">
       <x:c r="A19" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
@@ -1797,7 +2010,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>64</x:v>
@@ -1806,36 +2019,36 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
       <x:c r="A21" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1886,10 +2099,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,10 +2116,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,10 +2133,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,10 +2150,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,10 +2167,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
